--- a/Analise Financeira/Analise financeira PROJ02.xlsx
+++ b/Analise Financeira/Analise financeira PROJ02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gestao-de-Portfolios\Analise Financeira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C5DD92-BABA-4CFB-9247-D65681BD136E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CBA3F5-E743-4E1F-BFA7-3FE1E0726DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" firstSheet="1" activeTab="1" xr2:uid="{5407E0C7-D3D1-4456-BA1C-167F3E5756A9}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{5407E0C7-D3D1-4456-BA1C-167F3E5756A9}"/>
   </bookViews>
   <sheets>
     <sheet name="APRESENTAÇÃO" sheetId="2" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>PROJETO:</t>
   </si>
   <si>
-    <t>NOME DO PROJETO</t>
-  </si>
-  <si>
     <t>PERÍODO
  (EM ANOS)</t>
   </si>
@@ -196,7 +193,10 @@
     <t>ANÁLISE</t>
   </si>
   <si>
-    <t>Investimento inicial de R$ 1.500.000,00 e uma Taxa Mínima de Atratividade (TMA) de 11%. O projeto começa a gerar fluxos de caixa positivos no primeiro ano, e o Valor Presente Líquido (VPL) acumulado ao final de 12 anos chega a R$ 239.153,41. O Tempo de Retorno do Investimento (Payback) é de aproximadamente 9,97 anos, e a Taxa Interna de Retorno (TIR) é de 13,57%, indicando uma viabilidade atrativa, já que supera a TMA. Embora o Retorno sobre o Investimento (ROI) inicial seja de -30%, evidenciando um impacto negativo no início, o projeto começa a gerar fluxos de caixa positivos a partir do 10º ano, comprovando a rentabilidade a longo prazo, com um VPL positivo e uma TIR acima da TMA.</t>
+    <t>Projeto automacao de testes de software</t>
+  </si>
+  <si>
+    <t>O projeto de automação de testes de software é economicamente viável, pois apresenta um Valor Presente Líquido (VPL) de R$ 239.153,41, indicando que os retornos futuros trazem valor adicional ao investimento inicial de R$ 1.500.000,00. A Taxa Interna de Retorno (TIR) de 13,57% é superior à Taxa Mínima de Atratividade (TMA) de 11%, reforçando a atratividade do investimento. Com um Retorno sobre o Investimento (ROI) de 142%, espera-se um retorno significativo, enquanto o Payback de 9,97 anos sugere que o investimento será recuperado nesse período. Assim, o projeto tende a gerar um bom retorno financeiro a longo prazo, desde que o tempo de recuperação esteja alinhado com as expectativas da empresa.</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +567,9 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,9 +597,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,19 +604,19 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2068,7 +2068,103 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Automóvel</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Edificações</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>Recursos Humanos</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>Novo</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>Entrada</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>Computador</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Máquinas e Equipamentos</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>Financeiro</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>Ótimo</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>Saída</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Sala comercial</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>Instalações</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>Tec. Informação</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>Bom</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>Perda</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>Moto</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>Móveis e Utensílios</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>Diretoria</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>Regular</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>Calculadoras</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>Veículos</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>Almoxarifado</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>Péssimo</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>Cadeiras</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>Computadores e Periféricos</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>Logística</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>Mesas</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2124,9 +2220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2164,7 +2260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2270,7 +2366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2412,7 +2508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2430,9 +2526,9 @@
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2455,7 +2551,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="18.75">
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2478,7 +2574,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="18.75">
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2501,7 +2597,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="18.75">
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2524,7 +2620,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="18.75">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2547,7 +2643,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="18.75">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2570,7 +2666,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="18.75">
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2593,7 +2689,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="18.75">
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2616,7 +2712,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="18.75">
+    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2639,7 +2735,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="18.75">
+    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2662,7 +2758,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="18.75">
+    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2685,7 +2781,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="18.75">
+    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2708,7 +2804,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="18.75">
+    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2731,7 +2827,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="18.75">
+    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2754,7 +2850,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="18.75">
+    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2777,7 +2873,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" ht="18.75">
+    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2800,7 +2896,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21" ht="18.75">
+    <row r="17" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2823,7 +2919,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" ht="18.75">
+    <row r="18" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2846,7 +2942,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="18.75">
+    <row r="19" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2869,7 +2965,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" ht="18.75">
+    <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2892,7 +2988,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:21" ht="18.75">
+    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2915,7 +3011,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:21" ht="18.75">
+    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2938,7 +3034,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="18.75">
+    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2961,7 +3057,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" ht="18.75">
+    <row r="24" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2984,7 +3080,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="18.75">
+    <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3007,7 +3103,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="18.75">
+    <row r="26" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3030,7 +3126,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="18.75">
+    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3053,7 +3149,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="18.75">
+    <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3076,7 +3172,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="18.75">
+    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3099,7 +3195,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="409.6" hidden="1" customHeight="1">
+    <row r="30" spans="1:21" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3122,7 +3218,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="18.75">
+    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3159,22 +3255,22 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="51" customHeight="1">
+    <row r="2" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -3182,45 +3278,45 @@
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" ht="3" customHeight="1" thickBot="1">
+    <row r="3" spans="2:7" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" ht="22.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:7" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="6" spans="2:7" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>0</v>
       </c>
@@ -3236,14 +3332,14 @@
         <v>-1500000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="20">
         <f>ABS(C7)</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="8" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>1</v>
       </c>
@@ -3259,13 +3355,13 @@
         <v>-1454954.954954955</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="18">
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="9" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>2</v>
       </c>
@@ -3281,14 +3377,14 @@
         <v>-1373792.7116305495</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="15">
         <f>IF(G11&lt;0,"PROJETO INVIÁVEL",MATCH(0,E7:E19,1)-1+(-INDEX(E7:E19,MATCH(0,E7:E19,1))/INDEX(D7:D19,MATCH(0,E7:E19,1)+1)))</f>
         <v>9.9737000371471236</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="10" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>3</v>
       </c>
@@ -3304,14 +3400,14 @@
         <v>-1190994.8663053119</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="16">
         <f>IRR(C7:C19)</f>
         <v>0.13568692361111157</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="11" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>4</v>
       </c>
@@ -3327,14 +3423,14 @@
         <v>-993375.5740618119</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="17">
         <f>NPV(G8,C8:C19)+C7</f>
         <v>239153.40642167442</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="12" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>5</v>
       </c>
@@ -3350,18 +3446,18 @@
         <v>-785667.60924131633</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="23">
-        <f>(SUM(C8:C12)-G7)/G7</f>
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.95" customHeight="1">
+        <f>(SUM(C8:C19)-G7)/G7</f>
+        <v>1.4186666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>6</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="26">
         <v>375000</v>
       </c>
       <c r="D13" s="13">
@@ -3372,12 +3468,12 @@
         <f t="shared" si="1"/>
         <v>-585177.29570801952</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.95" customHeight="1">
+      <c r="F13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>7</v>
       </c>
@@ -3392,12 +3488,12 @@
         <f t="shared" si="1"/>
         <v>-402147.09956951428</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>8</v>
       </c>
@@ -3412,10 +3508,10 @@
         <f t="shared" si="1"/>
         <v>-271969.15068010805</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>9</v>
       </c>
@@ -3430,10 +3526,10 @@
         <f>D16+E15</f>
         <v>-129281.60910463278</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>10</v>
       </c>
@@ -3448,10 +3544,10 @@
         <f t="shared" si="1"/>
         <v>3491.9393933412503</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>11</v>
       </c>
@@ -3466,10 +3562,10 @@
         <f t="shared" si="1"/>
         <v>128818.84850677766</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="2:7" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>12</v>
       </c>
@@ -3484,10 +3580,10 @@
         <f t="shared" si="1"/>
         <v>239153.40642167436</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
   </sheetData>
@@ -3498,14 +3594,14 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PROJETO INVIÁVEL">
+      <formula>NOT(ISERROR(SEARCH("PROJETO INVIÁVEL",G9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PROJETO INVIÁVEL">
-      <formula>NOT(ISERROR(SEARCH("PROJETO INVIÁVEL",G9)))</formula>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
